--- a/query_estudo_frete_vtex.xlsx
+++ b/query_estudo_frete_vtex.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
   <si>
     <t>canal_venda</t>
   </si>
@@ -29,19 +35,40 @@
     <t>ticket_medio</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>DELIVERY</t>
   </si>
   <si>
+    <t>ECOMMERCE</t>
+  </si>
+  <si>
     <t>IFOOD</t>
   </si>
   <si>
     <t>RAPPI</t>
   </si>
   <si>
-    <t>ECOMMERCE</t>
-  </si>
-  <si>
     <t>RETIRA</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
 </sst>
 </file>
@@ -397,75 +424,611 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3437545.57</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11795</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4409130987706</v>
+        <v>4084749.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>271.4660530338273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3267123.15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>28361</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>115.1977416170093</v>
+        <v>1715683.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8265</v>
+      </c>
+      <c r="F3" t="n">
+        <v>207.5841960072595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>899626.39</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6865</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>131.0453590677349</v>
+        <v>4104870</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39359</v>
+      </c>
+      <c r="F4" t="n">
+        <v>104.2930460631622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>1322699.67</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5786</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>228.6034687175942</v>
+        <v>893719.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6962</v>
+      </c>
+      <c r="F5" t="n">
+        <v>128.3710930767021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>238514.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>204.7338369098713</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="D7" t="n">
+        <v>3786390.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13241</v>
+      </c>
+      <c r="F7" t="n">
+        <v>285.9595325126501</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1330764.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5981</v>
+      </c>
+      <c r="F8" t="n">
+        <v>222.4985855208159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3121711.31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28552</v>
+      </c>
+      <c r="F9" t="n">
+        <v>109.334243135332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>706333.85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5282</v>
+      </c>
+      <c r="F10" t="n">
+        <v>133.7246970844377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>207333.26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>993</v>
+      </c>
+      <c r="F11" t="n">
+        <v>208.7948237663646</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3982883.78</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13545</v>
+      </c>
+      <c r="F12" t="n">
+        <v>294.0482672572905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1726081.18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7740</v>
+      </c>
+      <c r="F13" t="n">
+        <v>223.0079043927649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3633212.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32131</v>
+      </c>
+      <c r="F14" t="n">
+        <v>113.0749761912172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>903089.14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>141.2842834793492</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>223713.54</v>
+      </c>
+      <c r="E16" t="n">
+        <v>983</v>
+      </c>
+      <c r="F16" t="n">
+        <v>227.5824415055951</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3441062.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11805</v>
+      </c>
+      <c r="F17" t="n">
+        <v>291.4919644218551</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1323083.04</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5788</v>
+      </c>
+      <c r="F18" t="n">
+        <v>228.5907118175536</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3267407.27</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28365</v>
+      </c>
+      <c r="F19" t="n">
+        <v>115.1915131323815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>900345.66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6870</v>
+      </c>
+      <c r="F20" t="n">
+        <v>131.0546812227074</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
         <v>219738.94</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E21" t="n">
         <v>842</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F21" t="n">
         <v>260.9726128266033</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3758656.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13206</v>
+      </c>
+      <c r="F22" t="n">
+        <v>284.6173330304407</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1380656.67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6294</v>
+      </c>
+      <c r="F23" t="n">
+        <v>219.3607673975214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3458645.38</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30897</v>
+      </c>
+      <c r="F24" t="n">
+        <v>111.9411392691847</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1227731.83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9108</v>
+      </c>
+      <c r="F25" t="n">
+        <v>134.7970827843654</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>196471.09</v>
+      </c>
+      <c r="E26" t="n">
+        <v>927</v>
+      </c>
+      <c r="F26" t="n">
+        <v>211.9429234088457</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1542502.94</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5354</v>
+      </c>
+      <c r="F27" t="n">
+        <v>288.1029025028016</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>595336.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2732</v>
+      </c>
+      <c r="F28" t="n">
+        <v>217.9123352855051</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1455424.99</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13035</v>
+      </c>
+      <c r="F29" t="n">
+        <v>111.6551584196394</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>452333.24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3314</v>
+      </c>
+      <c r="F30" t="n">
+        <v>136.4916234158117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>78109.05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>367</v>
+      </c>
+      <c r="F31" t="n">
+        <v>212.8311989100818</v>
       </c>
     </row>
   </sheetData>
